--- a/overview_dataset.xlsx
+++ b/overview_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/github repos/modelling_social_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB025F2E-60F6-AC4E-BDD5-D52524DB25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822AF1A-9BD0-BC40-AFFE-BC105311F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14380" xr2:uid="{FF53371A-3275-014D-BA00-26CBCAFF5271}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>username</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Features</t>
   </si>
   <si>
-    <t>likes</t>
-  </si>
-  <si>
     <t>Predict</t>
   </si>
   <si>
@@ -97,12 +94,6 @@
     <t>likes w4</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>views</t>
-  </si>
-  <si>
     <t>following</t>
   </si>
   <si>
@@ -136,39 +127,9 @@
     <t>Extra Features</t>
   </si>
   <si>
-    <t>comments_w1</t>
-  </si>
-  <si>
-    <t>comments_w2</t>
-  </si>
-  <si>
-    <t>comments_w3</t>
-  </si>
-  <si>
-    <t>comments_w4</t>
-  </si>
-  <si>
-    <t>views_w1</t>
-  </si>
-  <si>
-    <t>views_w2</t>
-  </si>
-  <si>
-    <t>views_w3</t>
-  </si>
-  <si>
-    <t>views_w4</t>
-  </si>
-  <si>
     <t>all_comments</t>
   </si>
   <si>
-    <t>Num_days * P(N=n|trending, streetwear)</t>
-  </si>
-  <si>
-    <t>likes(Date_posted-Date_collected)</t>
-  </si>
-  <si>
     <t>change_likes/likes</t>
   </si>
   <si>
@@ -182,6 +143,33 @@
   </si>
   <si>
     <t>Fashion</t>
+  </si>
+  <si>
+    <t>Top fashion posts</t>
+  </si>
+  <si>
+    <t>Out of the top trending posts select which ones have the fashion label</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Model type</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Output type</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Transformer (Hugging face)</t>
+  </si>
+  <si>
+    <t>MLP</t>
   </si>
 </sst>
 </file>
@@ -258,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,6 +254,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +574,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +583,7 @@
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
@@ -643,46 +634,46 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
       </c>
       <c r="W1" t="s">
         <v>6</v>
@@ -707,28 +698,29 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -742,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -753,127 +745,73 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H30" t="s">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G32" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
